--- a/Team_Contributions.xlsx
+++ b/Team_Contributions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Platformer-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7B055-0F4F-4F43-AFCA-FF31E4A7D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E913D-8A25-4E46-9738-7728AD648BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Task Weight (Importance)</t>
+  </si>
+  <si>
+    <t>Player Health / Death</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1107,11 +1110,19 @@
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
       <c r="F14"/>
       <c r="G14"/>
     </row>
@@ -1460,7 +1471,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(C4:C1000)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" s="12" t="e">
         <f>SUM(D4:D1000)</f>
@@ -1651,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>

--- a/Team_Contributions.xlsx
+++ b/Team_Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Platformer-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveabertayac-my.sharepoint.com/personal/2505947_uad_ac_uk/Documents/Documents/Platformer-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E913D-8A25-4E46-9738-7728AD648BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{6A5E913D-8A25-4E46-9738-7728AD648BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B997E85-306B-4AEA-9035-6F1ACDC63E10}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="1470" windowWidth="13005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -971,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1037,13 +1037,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
     </row>
@@ -1052,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>4</v>
@@ -1099,13 +1101,17 @@
         <v>14</v>
       </c>
       <c r="B13" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.6</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
     </row>
@@ -1467,11 +1473,11 @@
       </c>
       <c r="B3" s="12">
         <f>SUM(B4:B1000)</f>
-        <v>28</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C3" s="12">
         <f>SUM(C4:C1000)</f>
-        <v>7</v>
+        <v>17.2</v>
       </c>
       <c r="D3" s="12" t="e">
         <f>SUM(D4:D1000)</f>
@@ -1488,7 +1494,7 @@
       </c>
       <c r="B4" s="11" cm="1">
         <f t="array" ref="B4:B1002">Sheet1!$B$2:$B$1000*Sheet1!D$2:D$1000</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11" cm="1">
         <f t="array" ref="C4:C1002">Sheet1!$B$2:$B$1000*Sheet1!E$2:E$1000</f>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1645,10 +1651,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>0</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="C15" s="11">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
